--- a/LabelInference/experiment/excel/result.xlsx
+++ b/LabelInference/experiment/excel/result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhong\Documents\GitHub\CrossLPTripartite\LabelInference\experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linhong\Documents\GitHub\CrossLPTripartite\LabelInference\experiment\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="accuracy" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="20">
   <si>
     <t>graph-1</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>difference</t>
+  </si>
+  <si>
+    <t>accuracy</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:H6"/>
     </sheetView>
   </sheetViews>
@@ -420,6 +423,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/LabelInference/experiment/excel/result.xlsx
+++ b/LabelInference/experiment/excel/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="20">
   <si>
     <t>graph-1</t>
   </si>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R27"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H6"/>
+      <selection activeCell="V2" sqref="V2:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,185 +422,305 @@
     <col min="14" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="T1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.88289030657451628</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.88216374269005848</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.87716640085061071</v>
+        <v>0.77476566700000005</v>
+      </c>
+      <c r="C2">
+        <v>0.67497485617622233</v>
+      </c>
+      <c r="D2">
+        <v>0.87455647782377777</v>
       </c>
       <c r="E2" s="1">
-        <v>0.57765373028530875</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.84805068226120806</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.81718057770689301</v>
+        <v>0.70019366699999996</v>
+      </c>
+      <c r="F2">
+        <v>0.56167646659523096</v>
+      </c>
+      <c r="G2">
+        <v>0.83871086740476897</v>
       </c>
       <c r="H2" s="1">
-        <v>0.72315257841573599</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.77658066699999995</v>
+      </c>
+      <c r="I2">
+        <v>0.68524376777393015</v>
+      </c>
+      <c r="J2">
+        <v>0.86791756622606975</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.64646133299999997</v>
+      </c>
+      <c r="L2">
+        <v>0.6124605881158216</v>
+      </c>
+      <c r="M2">
+        <v>0.68046207788417834</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.66345500000000002</v>
+      </c>
+      <c r="O2">
+        <v>0.55433529041500018</v>
+      </c>
+      <c r="P2">
+        <v>0.77257470958499985</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.81184100000000003</v>
+      </c>
+      <c r="R2">
+        <v>0.77043366378575784</v>
+      </c>
+      <c r="S2">
+        <v>0.85324833621424223</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.70475166700000003</v>
+      </c>
+      <c r="U2">
+        <v>0.5994183832043195</v>
+      </c>
+      <c r="V2">
+        <v>0.81008495079568055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.64048566699999998</v>
+      </c>
+      <c r="C3">
+        <v>0.63214982212039006</v>
+      </c>
+      <c r="D3">
+        <v>0.6488215118796099</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.93260799999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.86056307253734232</v>
+      </c>
+      <c r="G3">
+        <v>1.0046529274626577</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.65622400000000003</v>
+      </c>
+      <c r="I3">
+        <v>0.65032542842383356</v>
+      </c>
+      <c r="J3">
+        <v>0.6621225715761665</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.73374099999999998</v>
+      </c>
+      <c r="L3">
+        <v>0.72888124178650093</v>
+      </c>
+      <c r="M3">
+        <v>0.73860075821349902</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.92706033300000001</v>
+      </c>
+      <c r="O3">
+        <v>0.82890569400236591</v>
+      </c>
+      <c r="P3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0.77476553856676211</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.70019326896182843</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.77584437378079041</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.50377979716555732</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.66345483075087941</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.81040955080337929</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.50910877098564233</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1">
+        <v>0.61967300000000003</v>
+      </c>
+      <c r="R3">
+        <v>0.61795619213252628</v>
+      </c>
+      <c r="S3">
+        <v>0.62138980786747378</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0.70164433299999995</v>
+      </c>
+      <c r="U3">
+        <v>0.69716291277683851</v>
+      </c>
+      <c r="V3">
+        <v>0.7061257532231614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>0.64048547979822068</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.93260802675175525</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.65147768966890396</v>
+        <v>0.61095666699999995</v>
+      </c>
+      <c r="C4">
+        <v>0.60448947151304799</v>
+      </c>
+      <c r="D4">
+        <v>0.61742386248695191</v>
       </c>
       <c r="E4" s="1">
-        <v>0.50002360865032836</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.92706011706372526</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.61609109496744641</v>
+        <v>0.37839166699999999</v>
+      </c>
+      <c r="F4">
+        <v>0.36926819648029807</v>
+      </c>
+      <c r="G4">
+        <v>0.3875151375197019</v>
       </c>
       <c r="H4" s="1">
-        <v>0.50315440984964199</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.60176766699999995</v>
+      </c>
+      <c r="I4">
+        <v>0.59540819359191521</v>
+      </c>
+      <c r="J4">
+        <v>0.60812714040808469</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.42375433299999998</v>
+      </c>
+      <c r="L4">
+        <v>0.42200218721566735</v>
+      </c>
+      <c r="M4">
+        <v>0.42550647878433262</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.37825266699999999</v>
+      </c>
+      <c r="O4">
+        <v>0.36772794337699455</v>
+      </c>
+      <c r="P4">
+        <v>0.38877739062300543</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.62262033299999997</v>
+      </c>
+      <c r="R4">
+        <v>0.61764367592331881</v>
+      </c>
+      <c r="S4">
+        <v>0.62759699007668113</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0.41244366700000001</v>
+      </c>
+      <c r="U4">
+        <v>0.4110277443131346</v>
+      </c>
+      <c r="V4">
+        <v>0.41385958968686543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>0.61095655776755831</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.37839174961957728</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.60334452634300428</v>
+        <v>0.68837700000000002</v>
+      </c>
+      <c r="C5">
+        <v>0.60090314722772931</v>
+      </c>
+      <c r="D5">
+        <v>0.77585085277227073</v>
       </c>
       <c r="E5" s="1">
-        <v>0.50371239202934537</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.37825250712298031</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.61828456050110403</v>
+        <v>0.75713299999999994</v>
+      </c>
+      <c r="F5">
+        <v>0.73953064079883069</v>
+      </c>
+      <c r="G5">
+        <v>0.7747353592011692</v>
       </c>
       <c r="H5" s="1">
-        <v>0.51312185622829398</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0.68837684076262173</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.75713295080056608</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.63082341302993827</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.502886313674898</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.75742062975474067</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.72214001260489935</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.53962017101686699</v>
-      </c>
+        <v>0.69382566700000003</v>
+      </c>
+      <c r="I5">
+        <v>0.56055245584205393</v>
+      </c>
+      <c r="J5">
+        <v>0.82709887815794614</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.76489633300000004</v>
+      </c>
+      <c r="L5">
+        <v>0.75417691859024039</v>
+      </c>
+      <c r="M5">
+        <v>0.77561574740975969</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.75742100000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.73981197079741734</v>
+      </c>
+      <c r="P5">
+        <v>0.77503002920258268</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.63240300000000005</v>
+      </c>
+      <c r="R5">
+        <v>0.49465220251795317</v>
+      </c>
+      <c r="S5">
+        <v>0.77015379748204693</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0.73667133299999998</v>
+      </c>
+      <c r="U5">
+        <v>0.7249753865592059</v>
+      </c>
+      <c r="V5">
+        <v>0.74836727944079406</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -610,14 +730,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -627,14 +740,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -644,58 +750,31 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -709,10 +788,8 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -726,10 +803,8 @@
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -743,10 +818,8 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -760,10 +833,8 @@
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -777,8 +848,6 @@
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
@@ -794,8 +863,6 @@
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -811,8 +878,6 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
@@ -851,13 +916,13 @@
       <c r="R20" s="1"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
@@ -2052,7 +2117,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B2" sqref="B2:H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LabelInference/experiment/excel/result.xlsx
+++ b/LabelInference/experiment/excel/result.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="22">
   <si>
     <t>graph-1</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>accuracy</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -409,7 +415,7 @@
   <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V5"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,23 +435,65 @@
       <c r="B1" t="s">
         <v>5</v>
       </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
       <c r="E1" t="s">
         <v>6</v>
       </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
       <c r="K1" t="s">
         <v>8</v>
       </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
       <c r="N1" t="s">
         <v>9</v>
       </c>
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" t="s">
+        <v>21</v>
+      </c>
       <c r="Q1" t="s">
         <v>10</v>
       </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
       <c r="T1" t="s">
         <v>11</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
